--- a/SandboxVDKDmitRöhnerIndikatoren.xlsx
+++ b/SandboxVDKDmitRöhnerIndikatoren.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="9855" tabRatio="930" firstSheet="12" activeTab="24"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="9855" tabRatio="930" firstSheet="13" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Kontur aussen F17Chr1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="140">
   <si>
     <t>MP1a</t>
   </si>
@@ -1240,12 +1240,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Dezimal" xfId="1" builtinId="3"/>
@@ -1736,7 +1736,9 @@
   <c:lang val="de-DE"/>
   <c:style val="5"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -1838,12 +1840,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="55834880"/>
-        <c:axId val="55874304"/>
+        <c:axId val="136729344"/>
+        <c:axId val="136731264"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="55834880"/>
+        <c:axId val="136729344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1864,17 +1866,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55874304"/>
+        <c:crossAx val="136731264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55874304"/>
+        <c:axId val="136731264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1896,16 +1899,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55834880"/>
+        <c:crossAx val="136729344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1942,7 +1947,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34048408325799601"/>
+          <c:x val="0.34048408325799612"/>
           <c:y val="1.290322580645162E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3392,11 +3397,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65521536"/>
-        <c:axId val="65605632"/>
+        <c:axId val="138310016"/>
+        <c:axId val="138311936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65521536"/>
+        <c:axId val="138310016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3419,14 +3424,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65605632"/>
+        <c:crossAx val="138311936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65605632"/>
+        <c:axId val="138311936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3451,7 +3456,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65521536"/>
+        <c:crossAx val="138310016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3475,7 +3480,9 @@
   <c:lang val="de-DE"/>
   <c:style val="5"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -3577,12 +3584,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="65688704"/>
-        <c:axId val="65690624"/>
+        <c:axId val="138333568"/>
+        <c:axId val="138540544"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65688704"/>
+        <c:axId val="138333568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3603,16 +3610,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65690624"/>
+        <c:crossAx val="138540544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65690624"/>
+        <c:axId val="138540544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3634,16 +3642,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65688704"/>
+        <c:crossAx val="138333568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3661,7 +3671,9 @@
   <c:lang val="de-DE"/>
   <c:style val="5"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -3763,12 +3775,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="65715584"/>
-        <c:axId val="65738240"/>
+        <c:axId val="138360704"/>
+        <c:axId val="138379264"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65715584"/>
+        <c:axId val="138360704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3789,16 +3801,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65738240"/>
+        <c:crossAx val="138379264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65738240"/>
+        <c:axId val="138379264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3820,16 +3833,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65715584"/>
+        <c:crossAx val="138360704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -4057,12 +4072,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="65759872"/>
-        <c:axId val="65786624"/>
+        <c:axId val="138552448"/>
+        <c:axId val="138554368"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65759872"/>
+        <c:axId val="138552448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4085,14 +4100,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65786624"/>
+        <c:crossAx val="138554368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65786624"/>
+        <c:axId val="138554368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4117,7 +4132,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65759872"/>
+        <c:crossAx val="138552448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4351,12 +4366,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="66869120"/>
-        <c:axId val="66871296"/>
+        <c:axId val="138609024"/>
+        <c:axId val="138610944"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66869120"/>
+        <c:axId val="138609024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4379,14 +4394,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66871296"/>
+        <c:crossAx val="138610944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66871296"/>
+        <c:axId val="138610944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4411,7 +4426,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66869120"/>
+        <c:crossAx val="138609024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5968,11 +5983,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66958848"/>
-        <c:axId val="66960768"/>
+        <c:axId val="138706944"/>
+        <c:axId val="138708864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66958848"/>
+        <c:axId val="138706944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5995,14 +6010,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66960768"/>
+        <c:crossAx val="138708864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66960768"/>
+        <c:axId val="138708864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6027,7 +6042,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66958848"/>
+        <c:crossAx val="138706944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6153,12 +6168,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="67076864"/>
-        <c:axId val="67078784"/>
+        <c:axId val="138861568"/>
+        <c:axId val="138863744"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67076864"/>
+        <c:axId val="138861568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6181,14 +6196,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67078784"/>
+        <c:crossAx val="138863744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67078784"/>
+        <c:axId val="138863744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6213,7 +6228,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67076864"/>
+        <c:crossAx val="138861568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6339,12 +6354,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="67177472"/>
-        <c:axId val="67179648"/>
+        <c:axId val="138884608"/>
+        <c:axId val="138886528"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67177472"/>
+        <c:axId val="138884608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6367,14 +6382,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67179648"/>
+        <c:crossAx val="138886528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67179648"/>
+        <c:axId val="138886528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6399,7 +6414,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67177472"/>
+        <c:crossAx val="138884608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6615,12 +6630,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="67205376"/>
-        <c:axId val="67232128"/>
+        <c:axId val="138937088"/>
+        <c:axId val="138939008"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67205376"/>
+        <c:axId val="138937088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6643,14 +6658,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67232128"/>
+        <c:crossAx val="138939008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67232128"/>
+        <c:axId val="138939008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6675,7 +6690,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67205376"/>
+        <c:crossAx val="138937088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6885,12 +6900,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="67319296"/>
-        <c:axId val="67321216"/>
+        <c:axId val="138973184"/>
+        <c:axId val="138975104"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67319296"/>
+        <c:axId val="138973184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6913,14 +6928,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67321216"/>
+        <c:crossAx val="138975104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67321216"/>
+        <c:axId val="138975104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6945,7 +6960,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67319296"/>
+        <c:crossAx val="138973184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6969,7 +6984,9 @@
   <c:lang val="de-DE"/>
   <c:style val="5"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -7071,12 +7088,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="58659968"/>
-        <c:axId val="58661888"/>
+        <c:axId val="136739840"/>
+        <c:axId val="136770688"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="58659968"/>
+        <c:axId val="136739840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7097,17 +7114,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58661888"/>
+        <c:crossAx val="136770688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58661888"/>
+        <c:axId val="136770688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7129,16 +7147,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58659968"/>
+        <c:crossAx val="136739840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -8635,11 +8655,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="67388544"/>
-        <c:axId val="67390464"/>
+        <c:axId val="140144000"/>
+        <c:axId val="140150272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67388544"/>
+        <c:axId val="140144000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8662,14 +8682,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67390464"/>
+        <c:crossAx val="140150272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67390464"/>
+        <c:axId val="140150272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8694,7 +8714,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67388544"/>
+        <c:crossAx val="140144000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8852,12 +8872,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="68845952"/>
-        <c:axId val="68847872"/>
+        <c:axId val="140323456"/>
+        <c:axId val="140342016"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="68845952"/>
+        <c:axId val="140323456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8880,14 +8900,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68847872"/>
+        <c:crossAx val="140342016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68847872"/>
+        <c:axId val="140342016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8912,7 +8932,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68845952"/>
+        <c:crossAx val="140323456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8966,7 +8986,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15934033245844387"/>
+          <c:x val="0.15934033245844395"/>
           <c:y val="5.5555555555555455E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -9072,12 +9092,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="68868736"/>
-        <c:axId val="70517504"/>
+        <c:axId val="140371072"/>
+        <c:axId val="140372992"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="68868736"/>
+        <c:axId val="140371072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9100,14 +9120,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70517504"/>
+        <c:crossAx val="140372992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70517504"/>
+        <c:axId val="140372992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9132,7 +9152,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68868736"/>
+        <c:crossAx val="140371072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9186,7 +9206,7 @@
           <c:yMode val="edge"/>
           <c:x val="6.6599518810148819E-2"/>
           <c:y val="7.4548702245552642E-2"/>
-          <c:w val="0.61978937007874269"/>
+          <c:w val="0.6197893700787428"/>
           <c:h val="0.89719889180519163"/>
         </c:manualLayout>
       </c:layout>
@@ -10813,11 +10833,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="70590464"/>
-        <c:axId val="70592384"/>
+        <c:axId val="140486912"/>
+        <c:axId val="140493184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70590464"/>
+        <c:axId val="140486912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10840,14 +10860,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70592384"/>
+        <c:crossAx val="140493184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70592384"/>
+        <c:axId val="140493184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10872,7 +10892,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70590464"/>
+        <c:crossAx val="140486912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11208,12 +11228,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="70631424"/>
-        <c:axId val="70633344"/>
+        <c:axId val="140527872"/>
+        <c:axId val="140542336"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="70631424"/>
+        <c:axId val="140527872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11236,14 +11256,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70633344"/>
+        <c:crossAx val="140542336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70633344"/>
+        <c:axId val="140542336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11268,7 +11288,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70631424"/>
+        <c:crossAx val="140527872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11594,12 +11614,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="70672384"/>
-        <c:axId val="70674304"/>
+        <c:axId val="140560640"/>
+        <c:axId val="140579200"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="70672384"/>
+        <c:axId val="140560640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11622,14 +11642,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70674304"/>
+        <c:crossAx val="140579200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70674304"/>
+        <c:axId val="140579200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11654,7 +11674,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70672384"/>
+        <c:crossAx val="140560640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11796,12 +11816,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="70761088"/>
-        <c:axId val="70763264"/>
+        <c:axId val="140665984"/>
+        <c:axId val="140667904"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="70761088"/>
+        <c:axId val="140665984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11824,14 +11844,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70763264"/>
+        <c:crossAx val="140667904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70763264"/>
+        <c:axId val="140667904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11856,7 +11876,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70761088"/>
+        <c:crossAx val="140665984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12004,12 +12024,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="70853760"/>
-        <c:axId val="70855680"/>
+        <c:axId val="140709248"/>
+        <c:axId val="140731904"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="70853760"/>
+        <c:axId val="140709248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12032,14 +12052,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70855680"/>
+        <c:crossAx val="140731904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70855680"/>
+        <c:axId val="140731904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12064,7 +12084,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70853760"/>
+        <c:crossAx val="140709248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12354,12 +12374,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="70898816"/>
-        <c:axId val="70900736"/>
+        <c:axId val="140770688"/>
+        <c:axId val="140776960"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="70898816"/>
+        <c:axId val="140770688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12382,14 +12402,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70900736"/>
+        <c:crossAx val="140776960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70900736"/>
+        <c:axId val="140776960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12414,7 +12434,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70898816"/>
+        <c:crossAx val="140770688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12704,12 +12724,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="70808704"/>
-        <c:axId val="70810624"/>
+        <c:axId val="140799360"/>
+        <c:axId val="140817920"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="70808704"/>
+        <c:axId val="140799360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12732,14 +12752,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70810624"/>
+        <c:crossAx val="140817920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70810624"/>
+        <c:axId val="140817920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12764,7 +12784,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70808704"/>
+        <c:crossAx val="140799360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12804,6 +12824,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -12998,12 +13019,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="58704256"/>
-        <c:axId val="58706176"/>
+        <c:axId val="136804608"/>
+        <c:axId val="136814976"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="58704256"/>
+        <c:axId val="136804608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13024,16 +13045,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58706176"/>
+        <c:crossAx val="136814976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58706176"/>
+        <c:axId val="136814976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13055,16 +13077,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58704256"/>
+        <c:crossAx val="136804608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -13106,8 +13130,8 @@
           <c:yMode val="edge"/>
           <c:x val="7.4558952075056473E-2"/>
           <c:y val="8.9218171358717152E-2"/>
-          <c:w val="0.77271636572475111"/>
-          <c:h val="0.84410365656348307"/>
+          <c:w val="0.772716365724751"/>
+          <c:h val="0.84410365656348341"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -14733,11 +14757,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="70994176"/>
-        <c:axId val="71020928"/>
+        <c:axId val="140944128"/>
+        <c:axId val="140946048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70994176"/>
+        <c:axId val="140944128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14760,14 +14784,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71020928"/>
+        <c:crossAx val="140946048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71020928"/>
+        <c:axId val="140946048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14792,7 +14816,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70994176"/>
+        <c:crossAx val="140944128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15156,8 +15180,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="72767360"/>
-        <c:axId val="72785920"/>
+        <c:axId val="142320000"/>
+        <c:axId val="142321920"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -15466,11 +15490,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="72806400"/>
-        <c:axId val="72787840"/>
+        <c:axId val="142084352"/>
+        <c:axId val="142082432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72767360"/>
+        <c:axId val="142320000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15493,12 +15517,12 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72785920"/>
+        <c:crossAx val="142321920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72785920"/>
+        <c:axId val="142321920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15523,12 +15547,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72767360"/>
+        <c:crossAx val="142320000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72787840"/>
+        <c:axId val="142082432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15552,19 +15576,19 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72806400"/>
+        <c:crossAx val="142084352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72806400"/>
+        <c:axId val="142084352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="72787840"/>
+        <c:crossAx val="142082432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15920,8 +15944,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="72733440"/>
-        <c:axId val="72735360"/>
+        <c:axId val="142142464"/>
+        <c:axId val="142148736"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -16234,11 +16258,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="72743552"/>
-        <c:axId val="72741632"/>
+        <c:axId val="142165120"/>
+        <c:axId val="142150656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72733440"/>
+        <c:axId val="142142464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16261,12 +16285,12 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72735360"/>
+        <c:crossAx val="142148736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72735360"/>
+        <c:axId val="142148736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16291,12 +16315,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72733440"/>
+        <c:crossAx val="142142464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72741632"/>
+        <c:axId val="142150656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16320,19 +16344,19 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72743552"/>
+        <c:crossAx val="142165120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72743552"/>
+        <c:axId val="142165120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="72741632"/>
+        <c:crossAx val="142150656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16748,25 +16772,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="73037312"/>
-        <c:axId val="73038848"/>
+        <c:axId val="140087296"/>
+        <c:axId val="140088832"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="73037312"/>
+        <c:axId val="140087296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73038848"/>
+        <c:crossAx val="140088832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73038848"/>
+        <c:axId val="140088832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16774,7 +16798,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73037312"/>
+        <c:crossAx val="140087296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18422,24 +18446,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="73078272"/>
-        <c:axId val="73079808"/>
+        <c:axId val="143941632"/>
+        <c:axId val="143943168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73078272"/>
+        <c:axId val="143941632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73079808"/>
+        <c:crossAx val="143943168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73079808"/>
+        <c:axId val="143943168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18447,7 +18471,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73078272"/>
+        <c:crossAx val="143941632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18799,25 +18823,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="73226112"/>
-        <c:axId val="73227648"/>
+        <c:axId val="144028032"/>
+        <c:axId val="144029568"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="73226112"/>
+        <c:axId val="144028032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73227648"/>
+        <c:crossAx val="144029568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73227648"/>
+        <c:axId val="144029568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18825,7 +18849,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73226112"/>
+        <c:crossAx val="144028032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19177,25 +19201,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="73537024"/>
-        <c:axId val="73538560"/>
+        <c:axId val="144060416"/>
+        <c:axId val="144061952"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="73537024"/>
+        <c:axId val="144060416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73538560"/>
+        <c:crossAx val="144061952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73538560"/>
+        <c:axId val="144061952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19203,7 +19227,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73537024"/>
+        <c:crossAx val="144060416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20621,24 +20645,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75924992"/>
-        <c:axId val="75926528"/>
+        <c:axId val="144175104"/>
+        <c:axId val="144176640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75924992"/>
+        <c:axId val="144175104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75926528"/>
+        <c:crossAx val="144176640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75926528"/>
+        <c:axId val="144176640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20646,7 +20670,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75924992"/>
+        <c:crossAx val="144175104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20660,7 +20684,7 @@
           <c:x val="0.74749912510936123"/>
           <c:y val="0.16011774569845438"/>
           <c:w val="0.25250087489063888"/>
-          <c:h val="0.83717191601050189"/>
+          <c:h val="0.83717191601050212"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -21056,25 +21080,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="76085120"/>
-        <c:axId val="76086656"/>
+        <c:axId val="144458112"/>
+        <c:axId val="144459648"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="76085120"/>
+        <c:axId val="144458112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76086656"/>
+        <c:crossAx val="144459648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76086656"/>
+        <c:axId val="144459648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21082,7 +21106,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76085120"/>
+        <c:crossAx val="144458112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21434,25 +21458,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="76191232"/>
-        <c:axId val="76192768"/>
+        <c:axId val="144502784"/>
+        <c:axId val="144504320"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="76191232"/>
+        <c:axId val="144502784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76192768"/>
+        <c:crossAx val="144504320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76192768"/>
+        <c:axId val="144504320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21460,7 +21484,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76191232"/>
+        <c:crossAx val="144502784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21500,6 +21524,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -21694,12 +21719,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="65027456"/>
-        <c:axId val="65037824"/>
+        <c:axId val="136828416"/>
+        <c:axId val="136830336"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65027456"/>
+        <c:axId val="136828416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21720,16 +21745,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65037824"/>
+        <c:crossAx val="136830336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65037824"/>
+        <c:axId val="136830336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21751,16 +21777,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65027456"/>
+        <c:crossAx val="136828416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -21970,25 +21998,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="77328384"/>
-        <c:axId val="77329920"/>
+        <c:axId val="144374016"/>
+        <c:axId val="144388096"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="77328384"/>
+        <c:axId val="144374016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77329920"/>
+        <c:crossAx val="144388096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77329920"/>
+        <c:axId val="144388096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21996,7 +22024,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77328384"/>
+        <c:crossAx val="144374016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22212,25 +22240,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="77354880"/>
-        <c:axId val="77356416"/>
+        <c:axId val="144413056"/>
+        <c:axId val="144414592"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="77354880"/>
+        <c:axId val="144413056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77356416"/>
+        <c:crossAx val="144414592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77356416"/>
+        <c:axId val="144414592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22238,7 +22266,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77354880"/>
+        <c:crossAx val="144413056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22430,25 +22458,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="77398016"/>
-        <c:axId val="77399552"/>
+        <c:axId val="144644352"/>
+        <c:axId val="144646144"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="77398016"/>
+        <c:axId val="144644352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77399552"/>
+        <c:crossAx val="144646144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77399552"/>
+        <c:axId val="144646144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22456,7 +22484,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77398016"/>
+        <c:crossAx val="144644352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22672,25 +22700,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="77424512"/>
-        <c:axId val="77426048"/>
+        <c:axId val="144675200"/>
+        <c:axId val="144676736"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="77424512"/>
+        <c:axId val="144675200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77426048"/>
+        <c:crossAx val="144676736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77426048"/>
+        <c:axId val="144676736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22698,7 +22726,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77424512"/>
+        <c:crossAx val="144675200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22890,25 +22918,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="77467648"/>
-        <c:axId val="77469184"/>
+        <c:axId val="144513280"/>
+        <c:axId val="144527360"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="77467648"/>
+        <c:axId val="144513280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77469184"/>
+        <c:crossAx val="144527360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77469184"/>
+        <c:axId val="144527360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22916,7 +22944,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77467648"/>
+        <c:crossAx val="144513280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23132,25 +23160,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="77515008"/>
-        <c:axId val="67117056"/>
+        <c:axId val="144548608"/>
+        <c:axId val="144550144"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="77515008"/>
+        <c:axId val="144548608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67117056"/>
+        <c:crossAx val="144550144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67117056"/>
+        <c:axId val="144550144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23158,7 +23186,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77515008"/>
+        <c:crossAx val="144548608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23374,25 +23402,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="67145728"/>
-        <c:axId val="67147264"/>
+        <c:axId val="142616832"/>
+        <c:axId val="142635008"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67145728"/>
+        <c:axId val="142616832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67147264"/>
+        <c:crossAx val="142635008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67147264"/>
+        <c:axId val="142635008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23400,7 +23428,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67145728"/>
+        <c:crossAx val="142616832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23592,25 +23620,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="67168128"/>
-        <c:axId val="67169664"/>
+        <c:axId val="142668160"/>
+        <c:axId val="142669696"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67168128"/>
+        <c:axId val="142668160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67169664"/>
+        <c:crossAx val="142669696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67169664"/>
+        <c:axId val="142669696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23618,7 +23646,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67168128"/>
+        <c:crossAx val="142668160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23810,25 +23838,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="82919424"/>
-        <c:axId val="82920960"/>
+        <c:axId val="144595200"/>
+        <c:axId val="144605184"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="82919424"/>
+        <c:axId val="144595200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82920960"/>
+        <c:crossAx val="144605184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82920960"/>
+        <c:axId val="144605184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23836,7 +23864,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82919424"/>
+        <c:crossAx val="144595200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24028,25 +24056,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="82962304"/>
-        <c:axId val="82963840"/>
+        <c:axId val="144634240"/>
+        <c:axId val="144635776"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="82962304"/>
+        <c:axId val="144634240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82963840"/>
+        <c:crossAx val="144635776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82963840"/>
+        <c:axId val="144635776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24054,7 +24082,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82962304"/>
+        <c:crossAx val="144634240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24093,6 +24121,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -25779,11 +25808,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65106688"/>
-        <c:axId val="65108608"/>
+        <c:axId val="137706112"/>
+        <c:axId val="137724672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65106688"/>
+        <c:axId val="137706112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25804,16 +25833,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65108608"/>
+        <c:crossAx val="137724672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65108608"/>
+        <c:axId val="137724672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25835,16 +25865,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65106688"/>
+        <c:crossAx val="137706112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -25878,7 +25910,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -25981,25 +26012,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="83124608"/>
-        <c:axId val="83126144"/>
+        <c:axId val="145053952"/>
+        <c:axId val="145059840"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="83124608"/>
+        <c:axId val="145053952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83126144"/>
+        <c:crossAx val="145059840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83126144"/>
+        <c:axId val="145059840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26007,14 +26038,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83124608"/>
+        <c:crossAx val="145053952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -26048,7 +26078,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -26151,25 +26180,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="83146624"/>
-        <c:axId val="83148160"/>
+        <c:axId val="145100800"/>
+        <c:axId val="145102336"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="83146624"/>
+        <c:axId val="145100800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83148160"/>
+        <c:crossAx val="145102336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83148160"/>
+        <c:axId val="145102336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26177,14 +26206,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83146624"/>
+        <c:crossAx val="145100800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -27834,24 +27862,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83270656"/>
-        <c:axId val="83285120"/>
+        <c:axId val="145208448"/>
+        <c:axId val="145210368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83270656"/>
+        <c:axId val="145208448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83285120"/>
+        <c:crossAx val="145210368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83285120"/>
+        <c:axId val="145210368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27859,7 +27887,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83270656"/>
+        <c:crossAx val="145208448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -28027,25 +28055,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="83323520"/>
-        <c:axId val="83358080"/>
+        <c:axId val="145273600"/>
+        <c:axId val="145275136"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="83323520"/>
+        <c:axId val="145273600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83358080"/>
+        <c:crossAx val="145275136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83358080"/>
+        <c:axId val="145275136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28053,7 +28081,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83323520"/>
+        <c:crossAx val="145273600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -28208,25 +28236,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="83379328"/>
-        <c:axId val="83380864"/>
+        <c:axId val="145320960"/>
+        <c:axId val="145326848"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="83379328"/>
+        <c:axId val="145320960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83380864"/>
+        <c:crossAx val="145326848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83380864"/>
+        <c:axId val="145326848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28234,7 +28262,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83379328"/>
+        <c:crossAx val="145320960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -28743,25 +28771,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="83441536"/>
-        <c:axId val="83443072"/>
+        <c:axId val="145518592"/>
+        <c:axId val="145520128"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="83441536"/>
+        <c:axId val="145518592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83443072"/>
+        <c:crossAx val="145520128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83443072"/>
+        <c:axId val="145520128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28769,7 +28797,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83441536"/>
+        <c:crossAx val="145518592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -29094,25 +29122,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="83473536"/>
-        <c:axId val="83475072"/>
+        <c:axId val="145538048"/>
+        <c:axId val="145543936"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="83473536"/>
+        <c:axId val="145538048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83475072"/>
+        <c:crossAx val="145543936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83475072"/>
+        <c:axId val="145543936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29120,7 +29148,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83473536"/>
+        <c:crossAx val="145538048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -29453,25 +29481,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="83510016"/>
-        <c:axId val="83511552"/>
+        <c:axId val="145382016"/>
+        <c:axId val="145392000"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="83510016"/>
+        <c:axId val="145382016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83511552"/>
+        <c:crossAx val="145392000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83511552"/>
+        <c:axId val="145392000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29479,7 +29507,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83510016"/>
+        <c:crossAx val="145382016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -29751,25 +29779,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="83558400"/>
-        <c:axId val="83559936"/>
+        <c:axId val="145418112"/>
+        <c:axId val="145419648"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="83558400"/>
+        <c:axId val="145418112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83559936"/>
+        <c:crossAx val="145419648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83559936"/>
+        <c:axId val="145419648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29777,7 +29805,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83558400"/>
+        <c:crossAx val="145418112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -30006,25 +30034,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="83602048"/>
-        <c:axId val="83616128"/>
+        <c:axId val="145449728"/>
+        <c:axId val="145451264"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="83602048"/>
+        <c:axId val="145449728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83616128"/>
+        <c:crossAx val="145451264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83616128"/>
+        <c:axId val="145451264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30032,7 +30060,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83602048"/>
+        <c:crossAx val="145449728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -30146,12 +30174,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="65343872"/>
-        <c:axId val="65345792"/>
+        <c:axId val="138131712"/>
+        <c:axId val="138146176"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65343872"/>
+        <c:axId val="138131712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30174,14 +30202,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65345792"/>
+        <c:crossAx val="138146176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65345792"/>
+        <c:axId val="138146176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30206,7 +30234,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65343872"/>
+        <c:crossAx val="138131712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -30720,25 +30748,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="83687680"/>
-        <c:axId val="83763200"/>
+        <c:axId val="145621376"/>
+        <c:axId val="145622912"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="83687680"/>
+        <c:axId val="145621376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83763200"/>
+        <c:crossAx val="145622912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83763200"/>
+        <c:axId val="145622912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30746,7 +30774,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83687680"/>
+        <c:crossAx val="145621376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -31079,25 +31107,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="83793408"/>
-        <c:axId val="83794944"/>
+        <c:axId val="145661312"/>
+        <c:axId val="145675392"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="83793408"/>
+        <c:axId val="145661312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83794944"/>
+        <c:crossAx val="145675392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83794944"/>
+        <c:axId val="145675392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31105,7 +31133,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83793408"/>
+        <c:crossAx val="145661312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -31610,7 +31638,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="plus"/>
             <c:errValType val="fixedVal"/>
-            <c:val val="0.75000000000000078"/>
+            <c:val val="0.75000000000000089"/>
           </c:errBars>
           <c:cat>
             <c:strRef>
@@ -31691,43 +31719,44 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83877248"/>
-        <c:axId val="83960960"/>
+        <c:axId val="145753600"/>
+        <c:axId val="145755136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83877248"/>
+        <c:axId val="145753600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83960960"/>
+        <c:crossAx val="145755136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83960960"/>
+        <c:axId val="145755136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83877248"/>
+        <c:crossAx val="145753600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -31753,6 +31782,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -32311,24 +32341,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84013440"/>
-        <c:axId val="84014976"/>
+        <c:axId val="145795328"/>
+        <c:axId val="145813504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84013440"/>
+        <c:axId val="145795328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84014976"/>
+        <c:crossAx val="145813504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84014976"/>
+        <c:axId val="145813504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32336,19 +32366,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84013440"/>
+        <c:crossAx val="145795328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -32844,25 +32875,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="84071552"/>
-        <c:axId val="84073088"/>
+        <c:axId val="145841152"/>
+        <c:axId val="145851136"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="84071552"/>
+        <c:axId val="145841152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84073088"/>
+        <c:crossAx val="145851136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84073088"/>
+        <c:axId val="145851136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32870,7 +32901,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84071552"/>
+        <c:crossAx val="145841152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -32882,7 +32913,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -33098,24 +33129,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85659008"/>
-        <c:axId val="85673088"/>
+        <c:axId val="146089472"/>
+        <c:axId val="146091008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85659008"/>
+        <c:axId val="146089472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85673088"/>
+        <c:crossAx val="146091008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85673088"/>
+        <c:axId val="146091008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33123,7 +33154,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85659008"/>
+        <c:crossAx val="146089472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -33135,7 +33166,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -33720,7 +33751,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="fixedVal"/>
-            <c:val val="0.75000000000000044"/>
+            <c:val val="0.75000000000000056"/>
           </c:errBars>
           <c:xVal>
             <c:strRef>
@@ -33941,22 +33972,22 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="72911872"/>
-        <c:axId val="72930048"/>
+        <c:axId val="146011264"/>
+        <c:axId val="146012800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72911872"/>
+        <c:axId val="146011264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72930048"/>
+        <c:crossAx val="146012800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72930048"/>
+        <c:axId val="146012800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33964,7 +33995,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72911872"/>
+        <c:crossAx val="146011264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -33977,7 +34008,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -33995,8 +34026,8 @@
           <c:yMode val="edge"/>
           <c:x val="5.9119559456150488E-2"/>
           <c:y val="4.5974349935793898E-2"/>
-          <c:w val="0.8095861970242817"/>
-          <c:h val="0.9366023286848365"/>
+          <c:w val="0.80958619702428158"/>
+          <c:h val="0.93660232868483662"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -34562,22 +34593,22 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="77609984"/>
-        <c:axId val="77628160"/>
+        <c:axId val="143832192"/>
+        <c:axId val="143833728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77609984"/>
+        <c:axId val="143832192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77628160"/>
+        <c:crossAx val="143833728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77628160"/>
+        <c:axId val="143833728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -34585,19 +34616,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77609984"/>
+        <c:crossAx val="143832192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -35072,24 +35104,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77646848"/>
-        <c:axId val="83055360"/>
+        <c:axId val="144778368"/>
+        <c:axId val="144779904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77646848"/>
+        <c:axId val="144778368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83055360"/>
+        <c:crossAx val="144779904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83055360"/>
+        <c:axId val="144779904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -35097,7 +35129,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77646848"/>
+        <c:crossAx val="144778368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -35109,7 +35141,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -35417,24 +35449,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="85743488"/>
-        <c:axId val="85745024"/>
+        <c:axId val="65867776"/>
+        <c:axId val="65869312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85743488"/>
+        <c:axId val="65867776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85745024"/>
+        <c:crossAx val="65869312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85745024"/>
+        <c:axId val="65869312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -35442,7 +35474,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85743488"/>
+        <c:crossAx val="65867776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -35454,7 +35486,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -35555,12 +35587,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="65366656"/>
-        <c:axId val="65381120"/>
+        <c:axId val="138035968"/>
+        <c:axId val="138037888"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65366656"/>
+        <c:axId val="138035968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -35583,14 +35615,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65381120"/>
+        <c:crossAx val="138037888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65381120"/>
+        <c:axId val="138037888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -35615,7 +35647,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65366656"/>
+        <c:crossAx val="138035968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -35936,24 +35968,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="85824256"/>
-        <c:axId val="85825792"/>
+        <c:axId val="65907328"/>
+        <c:axId val="65925504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85824256"/>
+        <c:axId val="65907328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85825792"/>
+        <c:crossAx val="65925504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85825792"/>
+        <c:axId val="65925504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -35961,7 +35993,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85824256"/>
+        <c:crossAx val="65907328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -35973,7 +36005,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -35992,10 +36024,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.1912729658792644E-2"/>
-          <c:y val="1.7498268280590021E-2"/>
-          <c:w val="0.70396571522309714"/>
-          <c:h val="0.84751228459623162"/>
+          <c:x val="9.191272965879263E-2"/>
+          <c:y val="1.7498268280590017E-2"/>
+          <c:w val="0.70396571522309725"/>
+          <c:h val="0.8475122845962314"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -36181,23 +36213,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="86305024"/>
-        <c:axId val="86315008"/>
+        <c:axId val="66052480"/>
+        <c:axId val="66054016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86305024"/>
+        <c:axId val="66052480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86315008"/>
+        <c:crossAx val="66054016"/>
         <c:crossesAt val="2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86315008"/>
+        <c:axId val="66054016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -36205,7 +36237,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86305024"/>
+        <c:crossAx val="66052480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -36218,7 +36250,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -36261,8 +36293,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="3.5953966967899396E-2"/>
-          <c:y val="1.736029134073094E-2"/>
-          <c:w val="0.78381058368838696"/>
+          <c:y val="1.7360291340730943E-2"/>
+          <c:w val="0.78381058368838707"/>
           <c:h val="0.97362548185934794"/>
         </c:manualLayout>
       </c:layout>
@@ -36595,7 +36627,7 @@
                   <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.14000000000000001</c:v>
+                  <c:v>-0.13800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-2.1999999999999999E-2</c:v>
@@ -37345,11 +37377,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="86386944"/>
-        <c:axId val="86389120"/>
+        <c:axId val="146678144"/>
+        <c:axId val="146680064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86386944"/>
+        <c:axId val="146678144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.5"/>
@@ -37376,13 +37408,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86389120"/>
+        <c:crossAx val="146680064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86389120"/>
+        <c:axId val="146680064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -37407,7 +37439,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86386944"/>
+        <c:crossAx val="146678144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -37421,7 +37453,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -37455,9 +37487,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.5878099930198916E-2"/>
-          <c:y val="3.2958575595210267E-2"/>
-          <c:w val="0.75885201679056336"/>
+          <c:x val="4.5878099930198923E-2"/>
+          <c:y val="3.2958575595210274E-2"/>
+          <c:w val="0.75885201679056358"/>
           <c:h val="0.92755802596879489"/>
         </c:manualLayout>
       </c:layout>
@@ -37492,7 +37524,7 @@
                     <c:v>6.6062171674232714E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.1583093241261018</c:v>
+                    <c:v>2.7772572611727615E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>1.4608937423083801E-2</c:v>
@@ -37531,7 +37563,7 @@
                     <c:v>6.6062171674232714E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.1583093241261018</c:v>
+                    <c:v>2.7772572611727615E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>1.4608937423083801E-2</c:v>
@@ -38540,11 +38572,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="96588160"/>
-        <c:axId val="96541312"/>
+        <c:axId val="148849792"/>
+        <c:axId val="148851712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96588160"/>
+        <c:axId val="148849792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.5"/>
@@ -38571,13 +38603,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96541312"/>
+        <c:crossAx val="148851712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96541312"/>
+        <c:axId val="148851712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -38602,7 +38634,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96588160"/>
+        <c:crossAx val="148849792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -38616,7 +38648,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -38650,9 +38682,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7446631671041081E-2"/>
-          <c:y val="4.2141294838145271E-2"/>
-          <c:w val="0.72091447944007025"/>
+          <c:x val="8.7446631671041067E-2"/>
+          <c:y val="4.2141294838145292E-2"/>
+          <c:w val="0.72091447944007037"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -39027,24 +39059,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86449152"/>
-        <c:axId val="86479616"/>
+        <c:axId val="149108608"/>
+        <c:axId val="149110144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86449152"/>
+        <c:axId val="149108608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86479616"/>
+        <c:crossAx val="149110144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86479616"/>
+        <c:axId val="149110144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39052,7 +39084,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86449152"/>
+        <c:crossAx val="149108608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -39065,7 +39097,1033 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerglAltNeu!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerglAltNeu!$C$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.27030002823373267</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11573449651772093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5587751214146704E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.592389616661136E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8022547312739773E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8022547312739773E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4942038071455556E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1128331324987196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.83699056096306E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21041062610748731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerglAltNeu!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nF17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerglAltNeu!$C$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15118479455705683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7766596212438205E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3324560249003474E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3330200448672081E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6693837501494849E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.922169826551564E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5423836644690757E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5874189537269287E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6501047964198518E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10868956275849763</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerglAltNeu!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerglAltNeu!$C$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.45378959882306691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12130431501849086</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8092429442401306E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0770380921826529E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10287447640079071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16392873933190411</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.218855275419505</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23452303219850071</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21083792727815212</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43154678955930992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerglAltNeu!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nF13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerglAltNeu!$C$12:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.16154761396859962</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0094647261064988E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5250625145308381E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6944180805158294E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6969768650335613E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8451251013101756E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7013926184468106E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1100006402870252E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0147151884282058E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10668571650067847</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerglAltNeu!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerglAltNeu!$C$13:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.4156108190858081</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13784048752090203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8247719459969976E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3455741879327438E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0317785885405518E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7527082062880359E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8382310609877344E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13217635278405179</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12059357552339342</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29073043013509225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerglAltNeu!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nFxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerglAltNeu!$C$14:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.12145932825869225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6062171674232714E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7772572611727615E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4608937423083801E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8644806282753824E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5021043774769821E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.218281792655454E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.98944583661936E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1121629988015636E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1044018047837549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="142532992"/>
+        <c:axId val="142534912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="142532992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="142534912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="142534912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="142532992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart76.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerglAltNeu!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerglAltNeu!$C$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.27030002823373267</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11573449651772093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5587751214146704E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.592389616661136E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8022547312739773E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8022547312739773E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4942038071455556E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1128331324987196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.83699056096306E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21041062610748731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerglAltNeu!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nF17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerglAltNeu!$C$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15118479455705683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7766596212438205E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3324560249003474E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3330200448672081E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6693837501494849E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.922169826551564E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5423836644690757E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5874189537269287E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6501047964198518E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10868956275849763</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerglAltNeu!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerglAltNeu!$C$13:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.4156108190858081</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13784048752090203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8247719459969976E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3455741879327438E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0317785885405518E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7527082062880359E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8382310609877344E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13217635278405179</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12059357552339342</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29073043013509225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerglAltNeu!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nFxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerglAltNeu!$C$14:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.12145932825869225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6062171674232714E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7772572611727615E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4608937423083801E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8644806282753824E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5021043774769821E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.218281792655454E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.98944583661936E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1121629988015636E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1044018047837549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="95077120"/>
+        <c:axId val="141824384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="95077120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141824384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="141824384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95077120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -39268,12 +40326,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="65283584"/>
-        <c:axId val="65285504"/>
+        <c:axId val="138149888"/>
+        <c:axId val="138151808"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65283584"/>
+        <c:axId val="138149888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39296,14 +40354,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65285504"/>
+        <c:crossAx val="138151808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65285504"/>
+        <c:axId val="138151808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39328,7 +40386,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65283584"/>
+        <c:crossAx val="138149888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -39538,12 +40596,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="65331968"/>
-        <c:axId val="65333888"/>
+        <c:axId val="138165248"/>
+        <c:axId val="138187904"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65331968"/>
+        <c:axId val="138165248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39566,14 +40624,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65333888"/>
+        <c:crossAx val="138187904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65333888"/>
+        <c:axId val="138187904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39598,7 +40656,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65331968"/>
+        <c:crossAx val="138165248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -41151,6 +42209,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -42659,8 +43777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34:M34"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -44082,8 +45200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -44910,8 +46028,7 @@
         <v>6.6062171674232714E-2</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
-        <v>0.1583093241261018</v>
+        <v>2.7772572611727615E-2</v>
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
@@ -44956,7 +46073,7 @@
       </c>
       <c r="F32">
         <f>F31/A2</f>
-        <v>3.5399041021801109E-2</v>
+        <v>6.2101360269871814E-3</v>
       </c>
       <c r="G32">
         <f>G31/A2</f>
@@ -45001,7 +46118,7 @@
       </c>
       <c r="F33">
         <f>F31*A1</f>
-        <v>7.3983995735564315E-2</v>
+        <v>1.2979184296403209E-2</v>
       </c>
       <c r="G33">
         <f>G31*A1</f>
@@ -45043,7 +46160,7 @@
         <v>0.04</v>
       </c>
       <c r="F34">
-        <v>0.08</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G34">
         <v>7.0000000000000001E-3</v>
@@ -45078,7 +46195,7 @@
         <v>0.33</v>
       </c>
       <c r="F35">
-        <v>-0.14000000000000001</v>
+        <v>-0.13800000000000001</v>
       </c>
       <c r="G35">
         <v>-2.1999999999999999E-2</v>
@@ -52538,18 +53655,18 @@
       <c r="E1" s="41"/>
     </row>
     <row r="2" spans="2:12">
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="38" t="s">
@@ -52839,7 +53956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D2:N12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -53135,8 +54252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:N28"/>
+    <sheetView topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -54154,8 +55271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:M15"/>
+    <sheetView topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -54628,8 +55745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:M123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K81" sqref="K81"/>
+    <sheetView topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -55653,7 +56770,7 @@
         <v>0.04</v>
       </c>
       <c r="F51">
-        <v>0.08</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G51">
         <v>7.0000000000000001E-3</v>
@@ -55900,7 +57017,7 @@
         <v>0.33</v>
       </c>
       <c r="E60">
-        <v>-0.14000000000000001</v>
+        <v>-0.13800000000000001</v>
       </c>
       <c r="F60">
         <v>-2.1999999999999999E-2</v>
@@ -56297,34 +57414,34 @@
       <c r="C106" t="s">
         <v>54</v>
       </c>
-      <c r="D106" s="57">
+      <c r="D106" s="56">
         <v>-0.77649999999999986</v>
       </c>
-      <c r="E106" s="58">
+      <c r="E106" s="57">
         <v>2.6000000000000006E-2</v>
       </c>
-      <c r="F106" s="58">
+      <c r="F106" s="57">
         <v>-0.32999999999999996</v>
       </c>
-      <c r="G106" s="58">
+      <c r="G106" s="57">
         <v>-1.3500000000000002E-2</v>
       </c>
-      <c r="H106" s="58">
+      <c r="H106" s="57">
         <v>-0.12700000000000006</v>
       </c>
-      <c r="I106" s="58">
+      <c r="I106" s="57">
         <v>-0.22900000000000001</v>
       </c>
-      <c r="J106" s="58">
+      <c r="J106" s="57">
         <v>-0.26500000000000001</v>
       </c>
-      <c r="K106" s="58">
+      <c r="K106" s="57">
         <v>-0.72549999999999992</v>
       </c>
-      <c r="L106" s="58">
+      <c r="L106" s="57">
         <v>0.20900000000000002</v>
       </c>
-      <c r="M106" s="59">
+      <c r="M106" s="58">
         <v>-0.20350000000000001</v>
       </c>
     </row>
@@ -56682,7 +57799,7 @@
         <v>6.6062171674232714E-2</v>
       </c>
       <c r="F120">
-        <v>0.1583093241261018</v>
+        <v>2.7772572611727615E-2</v>
       </c>
       <c r="G120">
         <v>1.4608937423083801E-2</v>
@@ -56819,10 +57936,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B7:L12"/>
+  <dimension ref="B7:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -57015,6 +58132,76 @@
       </c>
       <c r="L12">
         <v>0.10668571650067847</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13">
+        <v>0.4156108190858081</v>
+      </c>
+      <c r="D13">
+        <v>0.13784048752090203</v>
+      </c>
+      <c r="E13">
+        <v>9.8247719459969976E-2</v>
+      </c>
+      <c r="F13">
+        <v>5.3455741879327438E-2</v>
+      </c>
+      <c r="G13">
+        <v>6.0317785885405518E-2</v>
+      </c>
+      <c r="H13">
+        <v>4.7527082062880359E-2</v>
+      </c>
+      <c r="I13">
+        <v>2.8382310609877344E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.13217635278405179</v>
+      </c>
+      <c r="K13">
+        <v>0.12059357552339342</v>
+      </c>
+      <c r="L13">
+        <v>0.29073043013509225</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14">
+        <v>0.12145932825869225</v>
+      </c>
+      <c r="D14">
+        <v>6.6062171674232714E-2</v>
+      </c>
+      <c r="E14">
+        <v>2.7772572611727615E-2</v>
+      </c>
+      <c r="F14">
+        <v>1.4608937423083801E-2</v>
+      </c>
+      <c r="G14">
+        <v>3.8644806282753824E-2</v>
+      </c>
+      <c r="H14">
+        <v>2.5021043774769821E-2</v>
+      </c>
+      <c r="I14">
+        <v>1.218281792655454E-2</v>
+      </c>
+      <c r="J14">
+        <v>1.98944583661936E-2</v>
+      </c>
+      <c r="K14">
+        <v>5.1121629988015636E-2</v>
+      </c>
+      <c r="L14">
+        <v>0.1044018047837549</v>
       </c>
     </row>
   </sheetData>
@@ -57027,8 +58214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
